--- a/src/arbitrager/sample_data/dota.xlsx
+++ b/src/arbitrager/sample_data/dota.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Match</t>
   </si>
@@ -40,70 +40,43 @@
     <t>URL</t>
   </si>
   <si>
-    <t>access - forest</t>
-  </si>
-  <si>
-    <t>2020-12-28 05:15:00</t>
-  </si>
-  <si>
-    <t>3.51%</t>
-  </si>
-  <si>
-    <t>access will win</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>0.4313</t>
-  </si>
-  <si>
-    <t>ggbet</t>
-  </si>
-  <si>
-    <t>https://gg.bet/en/esports/match/forest-vs-access-28-12</t>
-  </si>
-  <si>
-    <t>forest will win</t>
-  </si>
-  <si>
-    <t>1.82</t>
-  </si>
-  <si>
-    <t>0.5687</t>
-  </si>
-  <si>
-    <t>favorit</t>
-  </si>
-  <si>
-    <t>https://old.favorit.com.ua/en/bets/#event=30013911&amp;tours=2709227</t>
-  </si>
-  <si>
-    <t>1.41%</t>
-  </si>
-  <si>
-    <t>access handicap +1.5 maps</t>
-  </si>
-  <si>
-    <t>1.46</t>
-  </si>
-  <si>
-    <t>0.6946</t>
-  </si>
-  <si>
-    <t>forest handicap -1.5 maps</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>0.3054</t>
+    <t>calamity king - sirius</t>
+  </si>
+  <si>
+    <t>2020-12-29 08:15:00</t>
+  </si>
+  <si>
+    <t>1.20%</t>
+  </si>
+  <si>
+    <t>calamity king handicap +1.5 maps</t>
+  </si>
+  <si>
+    <t>1.92</t>
+  </si>
+  <si>
+    <t>0.5271</t>
+  </si>
+  <si>
+    <t>parimatch</t>
+  </si>
+  <si>
+    <t>https://www.parimatch.com/en/sport/kibersport/dota-2-wcaa-challenge-cup</t>
+  </si>
+  <si>
+    <t>sirius handicap -1.5 maps</t>
+  </si>
+  <si>
+    <t>2.14</t>
+  </si>
+  <si>
+    <t>0.4729</t>
   </si>
   <si>
     <t>marathon</t>
   </si>
   <si>
-    <t>https://www.marathonbet.com/en/betting/e-Sports/Dota+2/Challenge+Cup/Main+Event/Best+of+3+maps/Forest+vs+Access+-+10766217</t>
+    <t>https://www.marathonbet.com/en/betting/e-Sports/Dota+2/Challenge+Cup/Main+Event/Best+of+3+maps/Calamity+King+vs+Team+Sirius+-+10766219</t>
   </si>
 </sst>
 </file>
@@ -448,7 +421,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -523,49 +496,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="H3" r:id="rId2" location="event=30013911&amp;tours=2709227"/>
-    <hyperlink ref="H4" r:id="rId3"/>
-    <hyperlink ref="H5" r:id="rId4"/>
+    <hyperlink ref="H3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
